--- a/data/trans_orig/P04B3_3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_3_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>18996</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11510</v>
+        <v>11124</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29508</v>
+        <v>29096</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03283503444892116</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01989460080597967</v>
+        <v>0.01922722322932976</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.051005133461754</v>
+        <v>0.05029242672304118</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -762,19 +762,19 @@
         <v>19367</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12955</v>
+        <v>13038</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27500</v>
+        <v>27916</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02357633331926093</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0157711412572181</v>
+        <v>0.01587259978912323</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03347746239085943</v>
+        <v>0.03398462175752966</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -783,19 +783,19 @@
         <v>38363</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29320</v>
+        <v>28570</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50316</v>
+        <v>51690</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02740243506918376</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02094320908642322</v>
+        <v>0.02040750959669518</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0359409258803487</v>
+        <v>0.03692234421658752</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>83096</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>68277</v>
+        <v>68833</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>101030</v>
+        <v>101403</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1436337346891723</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1180179340603444</v>
+        <v>0.1189785239908721</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.174633133415985</v>
+        <v>0.1752777993693047</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>174</v>
@@ -833,19 +833,19 @@
         <v>106327</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>92614</v>
+        <v>91750</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>123251</v>
+        <v>122114</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1294391050709137</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1127454326046061</v>
+        <v>0.1116934790150145</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1500426587744805</v>
+        <v>0.1486579075411491</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>269</v>
@@ -854,19 +854,19 @@
         <v>189423</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>167367</v>
+        <v>167482</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>211431</v>
+        <v>211856</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1353049491522119</v>
+        <v>0.1353049491522118</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1195506195411734</v>
+        <v>0.1196327317283414</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.151025349604694</v>
+        <v>0.1513285967775708</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>476437</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>456348</v>
+        <v>457176</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>492057</v>
+        <v>493509</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8235312308619066</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7888077904314028</v>
+        <v>0.7902387567168819</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.850531728205879</v>
+        <v>0.8530418926265076</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1222</v>
@@ -904,19 +904,19 @@
         <v>695748</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>677722</v>
+        <v>679461</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>711024</v>
+        <v>712758</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8469845616098253</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8250401416314345</v>
+        <v>0.8271569495694016</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8655816551412348</v>
+        <v>0.8676926145939072</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1797</v>
@@ -925,19 +925,19 @@
         <v>1172185</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1147401</v>
+        <v>1146433</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1196374</v>
+        <v>1195902</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.8372926157786044</v>
+        <v>0.8372926157786043</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.819589366467822</v>
+        <v>0.8188979556607645</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8545704608014986</v>
+        <v>0.8542332844719683</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>32708</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>21374</v>
+        <v>20866</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>49409</v>
+        <v>47597</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01466966249578349</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009586278638714937</v>
+        <v>0.009358668705983795</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02216019237505477</v>
+        <v>0.02134749314854928</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>37</v>
@@ -1050,19 +1050,19 @@
         <v>27210</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>18997</v>
+        <v>19309</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>38406</v>
+        <v>37911</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.01253516177745741</v>
+        <v>0.01253516177745742</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.008751676312107092</v>
+        <v>0.008895308386828079</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01769295151433568</v>
+        <v>0.01746504178592175</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>65</v>
@@ -1071,19 +1071,19 @@
         <v>59918</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>46676</v>
+        <v>45554</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>78583</v>
+        <v>77607</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01361670844704953</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01060735925991366</v>
+        <v>0.01035238048145524</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01785854957527798</v>
+        <v>0.0176366794772904</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>166972</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>142145</v>
+        <v>139695</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>199888</v>
+        <v>200647</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07488748936054546</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06375256208401868</v>
+        <v>0.06265364515586774</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08965076177583356</v>
+        <v>0.08999112881046606</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>214</v>
@@ -1121,19 +1121,19 @@
         <v>184958</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>162091</v>
+        <v>157584</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>214538</v>
+        <v>210251</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.08520710286180019</v>
+        <v>0.08520710286180022</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07467271371869041</v>
+        <v>0.0725965276058769</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0988339234459156</v>
+        <v>0.09685896442441232</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>361</v>
@@ -1142,19 +1142,19 @@
         <v>351930</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>315741</v>
+        <v>314882</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>393924</v>
+        <v>392801</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07997817812172667</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07175400776887264</v>
+        <v>0.07155877442719834</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0895216352864974</v>
+        <v>0.08926646413159922</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>2029953</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1994765</v>
+        <v>1997069</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2059711</v>
+        <v>2060081</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9104428481436712</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8946610367879698</v>
+        <v>0.895694412231966</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9237895405885284</v>
+        <v>0.9239557764226823</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2669</v>
@@ -1192,19 +1192,19 @@
         <v>1958520</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1928588</v>
+        <v>1930033</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1984632</v>
+        <v>1986980</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9022577353607423</v>
+        <v>0.9022577353607426</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8884687529235424</v>
+        <v>0.8891340034613912</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9142871395621078</v>
+        <v>0.9153687246985799</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4485</v>
@@ -1213,19 +1213,19 @@
         <v>3988473</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3942999</v>
+        <v>3946005</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4028265</v>
+        <v>4029065</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9064051134312238</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8960710455876957</v>
+        <v>0.896754107658233</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9154482944840293</v>
+        <v>0.9156300970882014</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>7957</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2799</v>
+        <v>2718</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19495</v>
+        <v>19218</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01118221110790189</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003932809750278193</v>
+        <v>0.003819977165341421</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02739660439522605</v>
+        <v>0.02700742519267112</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>14</v>
@@ -1338,19 +1338,19 @@
         <v>11044</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5750</v>
+        <v>5984</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19189</v>
+        <v>18305</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01507695459701886</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.007850075967669167</v>
+        <v>0.008169142162248361</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02619686199393174</v>
+        <v>0.02499081759255948</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>19</v>
@@ -1359,19 +1359,19 @@
         <v>19001</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>11359</v>
+        <v>11018</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>30982</v>
+        <v>31302</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01315775389673707</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007866040366875961</v>
+        <v>0.007629611538578847</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02145493243971893</v>
+        <v>0.02167634083982843</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>42151</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30198</v>
+        <v>30871</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59533</v>
+        <v>57944</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0592345545434126</v>
+        <v>0.05923455454341259</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04243820110696326</v>
+        <v>0.04338280674215211</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08366246982212773</v>
+        <v>0.08142931870887293</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -1409,19 +1409,19 @@
         <v>36621</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26883</v>
+        <v>26815</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49765</v>
+        <v>49233</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04999545482810991</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03670158137983547</v>
+        <v>0.03660922934020833</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06794085732451351</v>
+        <v>0.06721450778730657</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>84</v>
@@ -1430,19 +1430,19 @@
         <v>78771</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>62199</v>
+        <v>63268</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>98601</v>
+        <v>99735</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05454817741257013</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0430721262844482</v>
+        <v>0.043812783214005</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06828002271958783</v>
+        <v>0.0690656939585054</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>661479</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>642121</v>
+        <v>644397</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>675215</v>
+        <v>674950</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9295832343486856</v>
+        <v>0.9295832343486855</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9023785034054365</v>
+        <v>0.9055767955833486</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9488865890062752</v>
+        <v>0.9485139693339976</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>943</v>
@@ -1480,19 +1480,19 @@
         <v>684813</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>669698</v>
+        <v>671349</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>696740</v>
+        <v>696081</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9349275905748711</v>
+        <v>0.9349275905748712</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9142923833569881</v>
+        <v>0.9165467540322888</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9512104580901808</v>
+        <v>0.9503105474818051</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1579</v>
@@ -1501,19 +1501,19 @@
         <v>1346292</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1324635</v>
+        <v>1324210</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1364934</v>
+        <v>1364666</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9322940686906928</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9172963691878313</v>
+        <v>0.9170019971555098</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9452035642628851</v>
+        <v>0.9450179227541894</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>59661</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>43739</v>
+        <v>44405</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>80307</v>
+        <v>78849</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01695038698193782</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01242669797653548</v>
+        <v>0.01261606334609325</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02281598588140793</v>
+        <v>0.02240200462616418</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>81</v>
@@ -1626,19 +1626,19 @@
         <v>57620</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>46144</v>
+        <v>45878</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>71891</v>
+        <v>73477</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01547009766727145</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01238902819163776</v>
+        <v>0.01231766029674699</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01930173409429823</v>
+        <v>0.01972742436015253</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>135</v>
@@ -1647,19 +1647,19 @@
         <v>117281</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>98535</v>
+        <v>97889</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>141429</v>
+        <v>142143</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01618931231516777</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01360159995674494</v>
+        <v>0.01351239025716047</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01952258286228204</v>
+        <v>0.01962116955188068</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>292218</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>259452</v>
+        <v>256626</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>330538</v>
+        <v>329414</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.08302253048332081</v>
+        <v>0.08302253048332082</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07371328815755604</v>
+        <v>0.07291022394590127</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.093909417549269</v>
+        <v>0.09359025341480529</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>432</v>
@@ -1697,19 +1697,19 @@
         <v>327905</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>296914</v>
+        <v>297662</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>366214</v>
+        <v>364509</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08803754215908922</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07971698291141671</v>
+        <v>0.07991778016480884</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09832296519692892</v>
+        <v>0.09786508163556495</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>714</v>
@@ -1718,19 +1718,19 @@
         <v>620124</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>571692</v>
+        <v>572393</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>666291</v>
+        <v>669372</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.08560094424485196</v>
+        <v>0.085600944244852</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07891549636922654</v>
+        <v>0.07901229505577258</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09197377348887359</v>
+        <v>0.09239911471051579</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>3167869</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3125986</v>
+        <v>3126568</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3204093</v>
+        <v>3204896</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9000270825347414</v>
+        <v>0.9000270825347415</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8881275019058958</v>
+        <v>0.8882927941812093</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9103185107338038</v>
+        <v>0.9105467700381537</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4834</v>
@@ -1768,19 +1768,19 @@
         <v>3339081</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3304385</v>
+        <v>3300307</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3373942</v>
+        <v>3371863</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8964923601736393</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8871771869302235</v>
+        <v>0.8860822607902905</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9058521065533285</v>
+        <v>0.9052939684833634</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>7861</v>
@@ -1789,19 +1789,19 @@
         <v>6506950</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>6455287</v>
+        <v>6453661</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>6555258</v>
+        <v>6557107</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.8982097434399802</v>
+        <v>0.8982097434399803</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.891078208000621</v>
+        <v>0.8908537418883943</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9048780515736236</v>
+        <v>0.9051333591359468</v>
       </c>
     </row>
     <row r="19">
